--- a/medicine/Psychotrope/Cambridge_University_Wine_Society/Cambridge_University_Wine_Society.xlsx
+++ b/medicine/Psychotrope/Cambridge_University_Wine_Society/Cambridge_University_Wine_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Société des vins de l'Université de Cambridge (Cambridge University Wine Society (CUWS)), précédemment connue sous le nom de Cambridge University Wine and Food Society (CUWFS) fut créée à l'Université de Cambridge en Angleterre en 1792[1]. Cette société organise des dégustations et diners autour du vin avec pour but d'apprendre le vin à ses membres. Chaque année sept de ces membres sont sélectionnés pour participer à un match de dégustation à l'aveugle contre Oxford, le Varsity blind wine tasting match.
+La Société des vins de l'Université de Cambridge (Cambridge University Wine Society (CUWS)), précédemment connue sous le nom de Cambridge University Wine and Food Society (CUWFS) fut créée à l'Université de Cambridge en Angleterre en 1792. Cette société organise des dégustations et diners autour du vin avec pour but d'apprendre le vin à ses membres. Chaque année sept de ces membres sont sélectionnés pour participer à un match de dégustation à l'aveugle contre Oxford, le Varsity blind wine tasting match.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>La Société</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société des vins de l'Université de Cambridge organise plusieurs dégustations durant l'année académique. 
 </t>
@@ -543,10 +557,12 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Des experts et vignerons mondialement reconnus ont notamment participé aux évènements de la CUWS[2] :
-Prince Robert du Luxembourg, Château Haut-Brion[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des experts et vignerons mondialement reconnus ont notamment participé aux évènements de la CUWS :
+Prince Robert du Luxembourg, Château Haut-Brion.
 Pablo Alvarez et Xavier Ausás, Vega Sicilia.
 Aurélien Valance, Château Margaux.
 David Pearson, Opus One Winery.
@@ -579,9 +595,11 @@
           <t>Anciens membres de la CUWS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Anciens membres célèbres de la CUWS[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anciens membres célèbres de la CUWS :
 Hugh Johnson,
 David Peppercorn,
 Julian Jeffs,
